--- a/LPsolve1/Commons/Excel/newData.xlsx
+++ b/LPsolve1/Commons/Excel/newData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\LPsolve1\LPsolve1\LPsolve1\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\LPsolve1\LPsolve1\LPsolve1\Commons\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$261</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>مبلغ</t>
   </si>
@@ -70,6 +70,21 @@
   <si>
     <t>Shahdab 25</t>
   </si>
+  <si>
+    <t>1398/07/14</t>
+  </si>
+  <si>
+    <t>1398/07/15</t>
+  </si>
+  <si>
+    <t>1398/07/19</t>
+  </si>
+  <si>
+    <t>سررسید</t>
+  </si>
+  <si>
+    <t>نوع برگه</t>
+  </si>
 </sst>
 </file>
 
@@ -98,12 +113,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,10 +147,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -406,2432 +435,2511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>45100045100</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>192000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>75100045000</v>
       </c>
-      <c r="C3">
-        <f>C2+1</f>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>108000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>20100040000</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">C3+1</f>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="0">E3+1</f>
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>915836</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>30100045100</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>80000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>32100045100</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>117000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>71100000000</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>2949000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>45100550000</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>90000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>24100090000</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>63365929</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>80100045100</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>31142231</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1"/>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>200000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12">
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <v>45000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13">
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <v>17340000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14">
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <v>600000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15">
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="1">
+      <c r="F15" s="1">
         <v>33000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16">
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="1">
+      <c r="F16" s="1">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17">
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="1">
+      <c r="F17" s="1">
         <v>150000000</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
         <v>220385970</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="1">
+      <c r="F19" s="1">
         <v>6899200</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="1">
+      <c r="F20" s="1">
         <v>150000000</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="1">
+      <c r="F21" s="1">
         <v>528000000</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D22" s="1">
+      <c r="F22" s="1">
         <v>137415407</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>33000000</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D24" s="1">
+      <c r="F24" s="1">
         <v>10000000</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="1">
+      <c r="F25" s="1">
         <v>3720000000</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="1">
+      <c r="F26" s="1">
         <v>3720000000</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D27" s="1">
+      <c r="F27" s="1">
         <v>12000000</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D28" s="1">
+      <c r="F28" s="1">
         <v>5120000</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
         <v>77255885</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D30" s="1">
+      <c r="F30" s="1">
         <v>323817001</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D31" s="1">
+      <c r="F31" s="1">
         <v>5190000</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
         <v>15400000</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D33" s="1">
+      <c r="F33" s="1">
         <v>250000000</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D34" s="1">
+      <c r="F34" s="1">
         <v>250000000</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D35" s="1">
+      <c r="F35" s="1">
         <v>250000000</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D36" s="1">
+      <c r="F36" s="1">
         <v>696000000</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D37" s="1">
+      <c r="F37" s="1">
         <v>695000000</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D38" s="1">
+      <c r="F38" s="1">
         <v>189363000</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D39" s="1">
+      <c r="F39" s="1">
         <v>164828000</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D40" s="1">
+      <c r="F40" s="1">
         <v>695000000</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D41" s="1">
+      <c r="F41" s="1">
         <v>400000000</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D42" s="1">
+      <c r="F42" s="1">
         <v>5000000</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D43" s="1">
+      <c r="F43" s="1">
         <v>1244000000</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D44" s="1">
+      <c r="F44" s="1">
         <v>33000000</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D45" s="1">
+      <c r="F45" s="1">
         <v>5000000</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D46" s="1">
+      <c r="F46" s="1">
         <v>4166400000</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D47" s="1">
+      <c r="F47" s="1">
         <v>5555200000</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D48" s="1">
+      <c r="F48" s="1">
         <v>4166400000</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D49" s="1">
+      <c r="F49" s="1">
         <v>33000000</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D50" s="1">
+      <c r="F50" s="1">
         <v>10000000</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D51" s="1">
+      <c r="F51" s="1">
         <v>10000000</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D52" s="1">
+      <c r="F52" s="1">
         <v>33000000</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D53" s="1">
+      <c r="F53" s="1">
         <v>39117000</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D54" s="1">
+      <c r="F54" s="1">
         <v>1278000500</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D55" s="1">
+      <c r="F55" s="1">
         <v>57050000</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D56" s="1">
+      <c r="F56" s="1">
         <v>636380000</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D57" s="1">
+      <c r="F57" s="1">
         <v>934202500</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="D58" s="1">
+      <c r="F58" s="1">
         <v>123865000</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D59" s="1">
+      <c r="F59" s="1">
         <v>543173500</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="D60" s="1">
+      <c r="F60" s="1">
         <v>52516500</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D61" s="1">
+      <c r="F61" s="1">
         <v>699303000</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D62" s="1">
+      <c r="F62" s="1">
         <v>210673500</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D63" s="1">
+      <c r="F63" s="1">
         <v>147000000</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="D64" s="1">
+      <c r="F64" s="1">
         <v>226010500</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D65" s="1">
+      <c r="F65" s="1">
         <v>149635000</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="D66" s="1">
+      <c r="F66" s="1">
         <v>594437500</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="D67" s="1">
+      <c r="F67" s="1">
         <v>191941000</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68">
-        <f t="shared" ref="C68:C131" si="1">C67+1</f>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="1">E67+1</f>
         <v>67</v>
       </c>
-      <c r="D68" s="1">
+      <c r="F68" s="1">
         <v>1105457000</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D69" s="1">
+      <c r="F69" s="1">
         <v>1128582500</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="D70" s="1">
+      <c r="F70" s="1">
         <v>64750000</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="D71" s="1">
+      <c r="F71" s="1">
         <v>756159500</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C72">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="D72" s="1">
+      <c r="F72" s="1">
         <v>175127500</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C73">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="D73" s="1">
+      <c r="F73" s="1">
         <v>97814000</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="D74" s="1">
+      <c r="F74" s="1">
         <v>297691000</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C75">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="D75" s="1">
+      <c r="F75" s="1">
         <v>88304040</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C76">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="D76" s="1">
+      <c r="F76" s="1">
         <v>1508240000</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C77">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="D77" s="1">
+      <c r="F77" s="1">
         <v>2397030000</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C78">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="D78" s="1">
+      <c r="F78" s="1">
         <v>1172267000</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C79">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="D79" s="1">
+      <c r="F79" s="1">
         <v>714959000</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C80">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="D80" s="1">
+      <c r="F80" s="1">
         <v>688498000</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C81">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="D81" s="1">
+      <c r="F81" s="1">
         <v>988127000</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C82">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="D82" s="1">
+      <c r="F82" s="1">
         <v>1788620500</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C83">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="D83" s="1">
+      <c r="F83" s="1">
         <v>1768323500</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C84">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="D84" s="1">
+      <c r="F84" s="1">
         <v>599946000</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C85">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="D85" s="1">
+      <c r="F85" s="1">
         <v>1417729000</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C86">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="D86" s="1">
+      <c r="F86" s="1">
         <v>1686556500</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C87">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="D87" s="1">
+      <c r="F87" s="1">
         <v>9324000</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C88">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="D88" s="1">
+      <c r="F88" s="1">
         <v>1967381500</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C89">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="D89" s="1">
+      <c r="F89" s="1">
         <v>251655000</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C90">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="D90" s="1">
+      <c r="F90" s="1">
         <v>14622371698</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C91">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="D91" s="1">
+      <c r="F91" s="1">
         <v>161552500</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C92">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="D92" s="1">
+      <c r="F92" s="1">
         <v>637745000</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C93">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="D93" s="1">
+      <c r="F93" s="1">
         <v>667466000</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C94">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="D94" s="1">
+      <c r="F94" s="1">
         <v>171902500</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C95">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="D95" s="1">
+      <c r="F95" s="1">
         <v>1887567500</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C96">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D96" s="1">
+      <c r="F96" s="1">
         <v>4186130500</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C97">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="D97" s="1">
+      <c r="F97" s="1">
         <v>3874044000</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C98">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D98" s="1">
+      <c r="F98" s="1">
         <v>902938500</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C99">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D99" s="1">
+      <c r="F99" s="1">
         <v>3335551000</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C100">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="D100" s="1">
+      <c r="F100" s="1">
         <v>2734488000</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C101">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D101" s="1">
+      <c r="F101" s="1">
         <v>2153519000</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C102">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D102" s="1">
+      <c r="F102" s="1">
         <v>1246955500</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C103">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E103">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="D103" s="1">
+      <c r="F103" s="1">
         <v>250745000</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C104">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D104" s="1">
+      <c r="F104" s="1">
         <v>3366428000</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C105">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E105">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D105" s="1">
+      <c r="F105" s="1">
         <v>1507795500</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C106">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E106">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D106" s="1">
+      <c r="F106" s="1">
         <v>2061970000</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C107">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E107">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D107" s="1">
+      <c r="F107" s="1">
         <v>3567419500</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C108">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D108" s="1">
+      <c r="F108" s="1">
         <v>2317061000</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C109">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D109" s="1">
+      <c r="F109" s="1">
         <v>2049182000</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C110">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D110" s="1">
+      <c r="F110" s="1">
         <v>3586030500</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C111">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D111" s="1">
+      <c r="F111" s="1">
         <v>2459608500</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C112">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E112">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D112" s="1">
+      <c r="F112" s="1">
         <v>512776500</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D113" s="1">
+      <c r="F113" s="1">
         <v>824572000</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E114">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D114" s="1">
+      <c r="F114" s="1">
         <v>547280000</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E115">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D115" s="1">
+      <c r="F115" s="1">
         <v>384270000</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E116">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D116" s="1">
+      <c r="F116" s="1">
         <v>7085474000</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E117">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D117" s="1">
+      <c r="F117" s="1">
         <v>2698465000</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E118">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D118" s="1">
+      <c r="F118" s="1">
         <v>218140000</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E119">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D119" s="1">
+      <c r="F119" s="1">
         <v>10707000000</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E120">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D120" s="1">
+      <c r="F120" s="1">
         <v>570600000</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E121">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D121" s="1">
+      <c r="F121" s="1">
         <v>11000000000</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E122">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="D122" s="1">
+      <c r="F122" s="1">
         <v>5912000000</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E123">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="D123" s="1">
+      <c r="F123" s="1">
         <v>2700400000</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E124">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="D124" s="1">
+      <c r="F124" s="1">
         <v>2140014449</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E125">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D125" s="1">
+      <c r="F125" s="1">
         <v>1051239940</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C126">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E126">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D126" s="1">
+      <c r="F126" s="1">
         <v>379575255</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C127">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E127">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="D127" s="1">
+      <c r="F127" s="1">
         <v>53495043</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C128">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E128">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D128" s="1">
+      <c r="F128" s="1">
         <v>101683877</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C129">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E129">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="D129" s="1">
+      <c r="F129" s="1">
         <v>1232799570</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C130">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E130">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D130" s="1">
+      <c r="F130" s="1">
         <v>4966607946</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C131">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E131">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D131" s="1">
+      <c r="F131" s="1">
         <v>1013420000</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C132">
-        <f t="shared" ref="C132:C195" si="2">C131+1</f>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E132">
+        <f t="shared" ref="E132:E195" si="2">E131+1</f>
         <v>131</v>
       </c>
-      <c r="D132" s="1">
+      <c r="F132" s="1">
         <v>173322618</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C133">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E133">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="D133" s="1">
+      <c r="F133" s="1">
         <v>12500165935</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C134">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E134">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="D134" s="1">
+      <c r="F134" s="1">
         <v>1214779500</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C135">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E135">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="D135" s="1">
+      <c r="F135" s="1">
         <v>431244000</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C136">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E136">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="D136" s="1">
+      <c r="F136" s="1">
         <v>2000000000</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C137">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E137">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="D137" s="1">
+      <c r="F137" s="1">
         <v>180000000</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C138">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E138">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="D138" s="1">
+      <c r="F138" s="1">
         <v>140000000</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C139">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E139">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="D139" s="1">
+      <c r="F139" s="1">
         <v>180000000</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C140">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E140">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="D140" s="1">
+      <c r="F140" s="1">
         <v>51000000</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C141">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E141">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="D141" s="1">
+      <c r="F141" s="1">
         <v>39000000</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C142">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E142">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="D142" s="1">
+      <c r="F142" s="1">
         <v>39000000</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C143">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E143">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="D143" s="1">
+      <c r="F143" s="1">
         <v>51000000</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C144">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E144">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="D144" s="1">
+      <c r="F144" s="1">
         <v>12000000</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C145">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E145">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="D145" s="1">
+      <c r="F145" s="1">
         <v>12000000</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C146">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E146">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="D146" s="1">
+      <c r="F146" s="1">
         <v>12000000</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C147">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E147">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="D147" s="1">
+      <c r="F147" s="1">
         <v>2140000000</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C148">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E148">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="D148" s="1">
+      <c r="F148" s="1">
         <v>8520000000</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C149">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E149">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="D149" s="1">
+      <c r="F149" s="1">
         <v>4382200000</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C150">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E150">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="D150" s="1">
+      <c r="F150" s="1">
         <v>598123742</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C151">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E151">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="D151" s="1">
+      <c r="F151" s="1">
         <v>1753500000</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C152">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E152">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="D152" s="1">
+      <c r="F152" s="1">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C153">
+    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E153">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="D153" s="1">
+      <c r="F153" s="1">
         <v>2078770919</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C154">
+    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E154">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="D154" s="1">
+      <c r="F154" s="1">
         <v>650040608</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C155">
+    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E155">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="D155" s="1">
+      <c r="F155" s="1">
         <v>400459362</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C156">
+    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E156">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="D156" s="1">
+      <c r="F156" s="1">
         <v>229345494</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C157">
+    <row r="157" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E157">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="D157" s="1">
+      <c r="F157" s="1">
         <v>256450000</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C158">
+    <row r="158" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E158">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="D158" s="1">
+      <c r="F158" s="1">
         <v>367437145</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C159">
+    <row r="159" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E159">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="D159" s="1">
+      <c r="F159" s="1">
         <v>237663500</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C160">
+    <row r="160" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E160">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="D160" s="1">
+      <c r="F160" s="1">
         <v>293463000</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C161">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E161">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D161" s="1">
+      <c r="F161" s="1">
         <v>678654771</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C162">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E162">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="D162" s="1">
+      <c r="F162" s="1">
         <v>2367044000</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C163">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E163">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="D163" s="1">
+      <c r="F163" s="1">
         <v>7365878500</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C164">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E164">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="D164" s="1">
+      <c r="F164" s="1">
         <v>198935000</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C165">
+    <row r="165" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E165">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="D165" s="1">
+      <c r="F165" s="1">
         <v>5051700800</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C166">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E166">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="D166" s="1">
+      <c r="F166" s="1">
         <v>1724890550</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C167">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E167">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="D167" s="1">
+      <c r="F167" s="1">
         <v>1189232250</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C168">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E168">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="D168" s="1">
+      <c r="F168" s="1">
         <v>3118718000</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C169">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E169">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="D169" s="1">
+      <c r="F169" s="1">
         <v>2631472500</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C170">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E170">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="D170" s="1">
+      <c r="F170" s="1">
         <v>1236798000</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C171">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E171">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="D171" s="1">
+      <c r="F171" s="1">
         <v>2672289000</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C172">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E172">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="D172" s="1">
+      <c r="F172" s="1">
         <v>2846423000</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C173">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E173">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="D173" s="1">
+      <c r="F173" s="1">
         <v>3458717500</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C174">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E174">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="D174" s="1">
+      <c r="F174" s="1">
         <v>276905000</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C175">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E175">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="D175" s="1">
+      <c r="F175" s="1">
         <v>3677115100</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C176">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E176">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="D176" s="1">
+      <c r="F176" s="1">
         <v>3377235000</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C177">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E177">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="D177" s="1">
+      <c r="F177" s="1">
         <v>6900007000</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C178">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E178">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="D178" s="1">
+      <c r="F178" s="1">
         <v>2926338500</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C179">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E179">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="D179" s="1">
+      <c r="F179" s="1">
         <v>9083241500</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C180">
+    <row r="180" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E180">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="D180" s="1">
+      <c r="F180" s="1">
         <v>3425412500</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C181">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E181">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="D181" s="1">
+      <c r="F181" s="1">
         <v>2691187500</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C182">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E182">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="D182" s="1">
+      <c r="F182" s="1">
         <v>8803675000</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C183">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E183">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="D183" s="1">
+      <c r="F183" s="1">
         <v>5914502700</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C184">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E184">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="D184" s="1">
+      <c r="F184" s="1">
         <v>215297500</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C185">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E185">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="D185" s="1">
+      <c r="F185" s="1">
         <v>8992697500</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C186">
+    <row r="186" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E186">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="D186" s="1">
+      <c r="F186" s="1">
         <v>4729755500</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C187">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E187">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="D187" s="1">
+      <c r="F187" s="1">
         <v>8614569000</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C188">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E188">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="D188" s="1">
+      <c r="F188" s="1">
         <v>5103702000</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C189">
+    <row r="189" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E189">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="D189" s="1">
+      <c r="F189" s="1">
         <v>4164586000</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C190">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E190">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="D190" s="1">
+      <c r="F190" s="1">
         <v>1338084000</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C191">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E191">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="D191" s="1">
+      <c r="F191" s="1">
         <v>3854250500</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C192">
+    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E192">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="D192" s="1">
+      <c r="F192" s="1">
         <v>2954305000</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C193">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E193">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="D193" s="1">
+      <c r="F193" s="1">
         <v>3126801000</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C194">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E194">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="D194" s="1">
+      <c r="F194" s="1">
         <v>2804560950</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C195">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E195">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="D195" s="1">
+      <c r="F195" s="1">
         <v>1043103000</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C196">
-        <f t="shared" ref="C196:C259" si="3">C195+1</f>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E196">
+        <f t="shared" ref="E196:E259" si="3">E195+1</f>
         <v>195</v>
       </c>
-      <c r="D196" s="1">
+      <c r="F196" s="1">
         <v>2108750500</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C197">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E197">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="D197" s="1">
+      <c r="F197" s="1">
         <v>105165000</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C198">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E198">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="D198" s="1">
+      <c r="F198" s="1">
         <v>2042370750</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C199">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E199">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="D199" s="1">
+      <c r="F199" s="1">
         <v>3645992700</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C200">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E200">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="D200" s="1">
+      <c r="F200" s="1">
         <v>4312306750</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C201">
+    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E201">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="D201" s="1">
+      <c r="F201" s="1">
         <v>2532007850</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C202">
+    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E202">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="D202" s="1">
+      <c r="F202" s="1">
         <v>1627999625</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C203">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E203">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="D203" s="1">
+      <c r="F203" s="1">
         <v>1502344500</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C204">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E204">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="D204" s="1">
+      <c r="F204" s="1">
         <v>5473443800</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C205">
+    <row r="205" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E205">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="D205" s="1">
+      <c r="F205" s="1">
         <v>1708466300</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C206">
+    <row r="206" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E206">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="D206" s="1">
+      <c r="F206" s="1">
         <v>1842994000</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C207">
+    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E207">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="D207" s="1">
+      <c r="F207" s="1">
         <v>1882606000</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C208">
+    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E208">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="D208" s="1">
+      <c r="F208" s="1">
         <v>1806760000</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C209">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E209">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="D209" s="1">
+      <c r="F209" s="1">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C210">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E210">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="D210" s="1">
+      <c r="F210" s="1">
         <v>2850000000</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C211">
+    <row r="211" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E211">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="D211" s="1">
+      <c r="F211" s="1">
         <v>3260000000</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C212">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E212">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="D212" s="1">
+      <c r="F212" s="1">
         <v>1850000000</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C213">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E213">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="D213" s="1">
+      <c r="F213" s="1">
         <v>7067740000</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C214">
+    <row r="214" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E214">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="D214" s="1">
+      <c r="F214" s="1">
         <v>2084019500</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C215">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E215">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="D215" s="1">
+      <c r="F215" s="1">
         <v>4201655000</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C216">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E216">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="D216" s="1">
+      <c r="F216" s="1">
         <v>1664234400</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C217">
+    <row r="217" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E217">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="D217" s="1">
+      <c r="F217" s="1">
         <v>250644500</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C218">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E218">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="D218" s="1">
+      <c r="F218" s="1">
         <v>1432385750</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C219">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E219">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="D219" s="1">
+      <c r="F219" s="1">
         <v>180154000</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C220">
+    <row r="220" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E220">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="D220" s="1">
+      <c r="F220" s="1">
         <v>81788500</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C221">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E221">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="D221" s="1">
+      <c r="F221" s="1">
         <v>858040750</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C222">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E222">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="D222" s="1">
+      <c r="F222" s="1">
         <v>2394654050</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C223">
+    <row r="223" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E223">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="D223" s="1">
+      <c r="F223" s="1">
         <v>269479000</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C224">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E224">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="D224" s="1">
+      <c r="F224" s="1">
         <v>123376250</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C225">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E225">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="D225" s="1">
+      <c r="F225" s="1">
         <v>58597000</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C226">
+    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E226">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="D226" s="1">
+      <c r="F226" s="1">
         <v>180052800</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C227">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E227">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="D227" s="1">
+      <c r="F227" s="1">
         <v>191560175</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C228">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E228">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="D228" s="1">
+      <c r="F228" s="1">
         <v>1420569334</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C229">
+    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E229">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="D229" s="1">
+      <c r="F229" s="1">
         <v>1200000000</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C230">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E230">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="D230" s="1">
+      <c r="F230" s="1">
         <v>1619900000</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C231">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E231">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="D231" s="1">
+      <c r="F231" s="1">
         <v>1699900000</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C232">
+    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E232">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="D232" s="1">
+      <c r="F232" s="1">
         <v>1301100000</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C233">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E233">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="D233" s="1">
+      <c r="F233" s="1">
         <v>21170000</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C234">
+    <row r="234" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E234">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="D234" s="1">
+      <c r="F234" s="1">
         <v>20617500</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C235">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E235">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="D235" s="1">
+      <c r="F235" s="1">
         <v>41301500</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C236">
+    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E236">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="D236" s="1">
+      <c r="F236" s="1">
         <v>11635000</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C237">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E237">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="D237" s="1">
+      <c r="F237" s="1">
         <v>307955800</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C238">
+    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E238">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="D238" s="1">
+      <c r="F238" s="1">
         <v>20000000000</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C239">
+    <row r="239" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E239">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="D239" s="1">
+      <c r="F239" s="1">
         <v>10000000000</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C240">
+    <row r="240" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E240">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="D240" s="1">
+      <c r="F240" s="1">
         <v>467955000</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C241">
+    <row r="241" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E241">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="D241" s="1">
+      <c r="F241" s="1">
         <v>9270000</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C242">
+    <row r="242" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E242">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="D242" s="1">
+      <c r="F242" s="1">
         <v>11408000</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C243">
+    <row r="243" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E243">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="D243" s="1">
+      <c r="F243" s="1">
         <v>3510000</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C244">
+    <row r="244" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E244">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
-      <c r="D244" s="1">
+      <c r="F244" s="1">
         <v>1140000</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C245">
+    <row r="245" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E245">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="D245" s="1">
+      <c r="F245" s="1">
         <v>17677500</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C246">
+    <row r="246" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E246">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="D246" s="1">
+      <c r="F246" s="1">
         <v>357000</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C247">
+    <row r="247" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E247">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="D247" s="1">
+      <c r="F247" s="1">
         <v>4495000</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C248">
+    <row r="248" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E248">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="D248" s="1">
+      <c r="F248" s="1">
         <v>101696858</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C249">
+    <row r="249" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E249">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="D249" s="1">
+      <c r="F249" s="1">
         <v>4257191190</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C250">
+    <row r="250" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E250">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="D250" s="1">
+      <c r="F250" s="1">
         <v>185516430</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C251">
+    <row r="251" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E251">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="D251" s="1">
+      <c r="F251" s="1">
         <v>1925602946</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C252">
+    <row r="252" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E252">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="D252" s="1">
+      <c r="F252" s="1">
         <v>1574310965</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C253">
+    <row r="253" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E253">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="D253" s="1">
+      <c r="F253" s="1">
         <v>7418127108</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C254">
+    <row r="254" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E254">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="D254" s="1">
+      <c r="F254" s="1">
         <v>190406650</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C255">
+    <row r="255" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E255">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="D255" s="1">
+      <c r="F255" s="1">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C256">
+    <row r="256" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E256">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="D256" s="1">
+      <c r="F256" s="1">
         <v>2290551040</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C257">
+    <row r="257" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E257">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="D257" s="1">
+      <c r="F257" s="1">
         <v>13844000</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C258">
+    <row r="258" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E258">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="D258" s="1">
+      <c r="F258" s="1">
         <v>81516501</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C259">
+    <row r="259" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E259">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="D259" s="1">
+      <c r="F259" s="1">
         <v>41480999</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C260">
-        <f t="shared" ref="C260:C261" si="4">C259+1</f>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E260">
+        <f t="shared" ref="E260:E261" si="4">E259+1</f>
         <v>259</v>
       </c>
-      <c r="D260" s="1">
+      <c r="F260" s="1">
         <v>232000000</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C261">
+    <row r="261" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E261">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="D261" s="1">
+      <c r="F261" s="1">
         <v>70193000</v>
       </c>
     </row>

--- a/LPsolve1/Commons/Excel/newData.xlsx
+++ b/LPsolve1/Commons/Excel/newData.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$261</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>مبلغ</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>نوع برگه</t>
   </si>
+  <si>
+    <t>کدمرکز</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +135,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,12 +156,26 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -435,2511 +458,2541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="6">
         <v>45100045100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>192000000</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="6">
         <v>75100045000</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="E3">
-        <f>E2+1</f>
+      <c r="F3">
+        <f>F2+1</f>
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>108000000</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="6">
         <v>20100040000</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E67" si="0">E3+1</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">F3+1</f>
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>915836</v>
       </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="6">
         <v>30100045100</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>80000000</v>
       </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>32100045100</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>117000000</v>
       </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>71100000000</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="8">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2949000</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="6">
         <v>45100550000</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>90000000</v>
       </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="6">
         <v>24100090000</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>63365929</v>
       </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="6">
         <v>80100045100</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>31142231</v>
       </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11">
+      <c r="D11" s="1"/>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>200000000</v>
       </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E12">
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>45000000</v>
       </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E13">
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>17340000</v>
       </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14">
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>600000000</v>
       </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E15">
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>33000000</v>
       </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16">
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>10000000</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17">
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>150000000</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>220385970</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>6899200</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>150000000</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>528000000</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>137415407</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>33000000</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>10000000</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>3720000000</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>3720000000</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>12000000</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>5120000</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>77255885</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E30">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>323817001</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E31">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>5190000</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E32">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>15400000</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E33">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>250000000</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E34">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>250000000</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E35">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>250000000</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E36">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>696000000</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E37">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>695000000</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E38">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>189363000</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E39">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>164828000</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E40">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>695000000</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E41">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>400000000</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E42">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>5000000</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E43">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>1244000000</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E44">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>33000000</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E45">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>5000000</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E46">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>4166400000</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E47">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>5555200000</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E48">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>4166400000</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E49">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>33000000</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E50">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>10000000</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E51">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>10000000</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E52">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>33000000</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E53">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>39117000</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E54">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>1278000500</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E55">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>57050000</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E56">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>636380000</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E57">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>934202500</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E58">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>123865000</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E59">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>543173500</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E60">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>52516500</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E61">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>699303000</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E62">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>210673500</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E63">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>147000000</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E64">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>226010500</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E65">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>149635000</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E66">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>594437500</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E67">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>191941000</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E68">
-        <f t="shared" ref="E68:E131" si="1">E67+1</f>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="1">F67+1</f>
         <v>67</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>1105457000</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E69">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>1128582500</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E70">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>64750000</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E71">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>756159500</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E72">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>175127500</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E73">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <v>97814000</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E74">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <v>297691000</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E75">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>88304040</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E76">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>1508240000</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E77">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>2397030000</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E78">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>1172267000</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E79">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>714959000</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E80">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>688498000</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E81">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>988127000</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E82">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <v>1788620500</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E83">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="F83" s="1">
+      <c r="G83" s="1">
         <v>1768323500</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E84">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G84" s="1">
         <v>599946000</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E85">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>1417729000</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E86">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>1686556500</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E87">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>9324000</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E88">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>1967381500</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E89">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="F89" s="1">
+      <c r="G89" s="1">
         <v>251655000</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E90">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="F90" s="1">
+      <c r="G90" s="1">
         <v>14622371698</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E91">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F91" s="1">
+      <c r="G91" s="1">
         <v>161552500</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E92">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
         <v>637745000</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E93">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="F93" s="1">
+      <c r="G93" s="1">
         <v>667466000</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E94">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="F94" s="1">
+      <c r="G94" s="1">
         <v>171902500</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E95">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="F95" s="1">
+      <c r="G95" s="1">
         <v>1887567500</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E96">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <v>4186130500</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E97">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="F97" s="1">
+      <c r="G97" s="1">
         <v>3874044000</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E98">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F98" s="1">
+      <c r="G98" s="1">
         <v>902938500</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E99">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="F99" s="1">
+      <c r="G99" s="1">
         <v>3335551000</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E100">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="F100" s="1">
+      <c r="G100" s="1">
         <v>2734488000</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E101">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F101" s="1">
+      <c r="G101" s="1">
         <v>2153519000</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E102">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="F102" s="1">
+      <c r="G102" s="1">
         <v>1246955500</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E103">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F103">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="F103" s="1">
+      <c r="G103" s="1">
         <v>250745000</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E104">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F104" s="1">
+      <c r="G104" s="1">
         <v>3366428000</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E105">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F105">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="F105" s="1">
+      <c r="G105" s="1">
         <v>1507795500</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E106">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F106">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="F106" s="1">
+      <c r="G106" s="1">
         <v>2061970000</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E107">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F107">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="F107" s="1">
+      <c r="G107" s="1">
         <v>3567419500</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E108">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="F108" s="1">
+      <c r="G108" s="1">
         <v>2317061000</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E109">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="F109" s="1">
+      <c r="G109" s="1">
         <v>2049182000</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E110">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="F110" s="1">
+      <c r="G110" s="1">
         <v>3586030500</v>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E111">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="F111" s="1">
+      <c r="G111" s="1">
         <v>2459608500</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E112">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F112">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="F112" s="1">
+      <c r="G112" s="1">
         <v>512776500</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E113">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="F113" s="1">
+      <c r="G113" s="1">
         <v>824572000</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E114">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F114">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="F114" s="1">
+      <c r="G114" s="1">
         <v>547280000</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E115">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F115">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="F115" s="1">
+      <c r="G115" s="1">
         <v>384270000</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E116">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F116">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="F116" s="1">
+      <c r="G116" s="1">
         <v>7085474000</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E117">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F117">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="F117" s="1">
+      <c r="G117" s="1">
         <v>2698465000</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E118">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F118">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="F118" s="1">
+      <c r="G118" s="1">
         <v>218140000</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E119">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F119">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="F119" s="1">
+      <c r="G119" s="1">
         <v>10707000000</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E120">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F120">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="F120" s="1">
+      <c r="G120" s="1">
         <v>570600000</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E121">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F121">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F121" s="1">
+      <c r="G121" s="1">
         <v>11000000000</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E122">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F122">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="F122" s="1">
+      <c r="G122" s="1">
         <v>5912000000</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E123">
+    <row r="123" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F123">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="F123" s="1">
+      <c r="G123" s="1">
         <v>2700400000</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E124">
+    <row r="124" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F124">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="F124" s="1">
+      <c r="G124" s="1">
         <v>2140014449</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E125">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F125">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="F125" s="1">
+      <c r="G125" s="1">
         <v>1051239940</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E126">
+    <row r="126" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F126">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F126" s="1">
+      <c r="G126" s="1">
         <v>379575255</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E127">
+    <row r="127" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F127">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="F127" s="1">
+      <c r="G127" s="1">
         <v>53495043</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E128">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F128">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="F128" s="1">
+      <c r="G128" s="1">
         <v>101683877</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E129">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F129">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="F129" s="1">
+      <c r="G129" s="1">
         <v>1232799570</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E130">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F130">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="F130" s="1">
+      <c r="G130" s="1">
         <v>4966607946</v>
       </c>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E131">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F131">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="F131" s="1">
+      <c r="G131" s="1">
         <v>1013420000</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E132">
-        <f t="shared" ref="E132:E195" si="2">E131+1</f>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <f t="shared" ref="F132:F195" si="2">F131+1</f>
         <v>131</v>
       </c>
-      <c r="F132" s="1">
+      <c r="G132" s="1">
         <v>173322618</v>
       </c>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E133">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F133">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="F133" s="1">
+      <c r="G133" s="1">
         <v>12500165935</v>
       </c>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E134">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F134">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="F134" s="1">
+      <c r="G134" s="1">
         <v>1214779500</v>
       </c>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E135">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F135">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="F135" s="1">
+      <c r="G135" s="1">
         <v>431244000</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E136">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F136">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="F136" s="1">
+      <c r="G136" s="1">
         <v>2000000000</v>
       </c>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E137">
+    <row r="137" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F137">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="F137" s="1">
+      <c r="G137" s="1">
         <v>180000000</v>
       </c>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E138">
+    <row r="138" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F138">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="F138" s="1">
+      <c r="G138" s="1">
         <v>140000000</v>
       </c>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E139">
+    <row r="139" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F139">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="F139" s="1">
+      <c r="G139" s="1">
         <v>180000000</v>
       </c>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E140">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F140">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="F140" s="1">
+      <c r="G140" s="1">
         <v>51000000</v>
       </c>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E141">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F141">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="F141" s="1">
+      <c r="G141" s="1">
         <v>39000000</v>
       </c>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E142">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F142">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="F142" s="1">
+      <c r="G142" s="1">
         <v>39000000</v>
       </c>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E143">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F143">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="F143" s="1">
+      <c r="G143" s="1">
         <v>51000000</v>
       </c>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E144">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F144">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="F144" s="1">
+      <c r="G144" s="1">
         <v>12000000</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E145">
+    <row r="145" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F145">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="F145" s="1">
+      <c r="G145" s="1">
         <v>12000000</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E146">
+    <row r="146" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F146">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="F146" s="1">
+      <c r="G146" s="1">
         <v>12000000</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E147">
+    <row r="147" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F147">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="F147" s="1">
+      <c r="G147" s="1">
         <v>2140000000</v>
       </c>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E148">
+    <row r="148" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F148">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="F148" s="1">
+      <c r="G148" s="1">
         <v>8520000000</v>
       </c>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E149">
+    <row r="149" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F149">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="F149" s="1">
+      <c r="G149" s="1">
         <v>4382200000</v>
       </c>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E150">
+    <row r="150" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F150">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="F150" s="1">
+      <c r="G150" s="1">
         <v>598123742</v>
       </c>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E151">
+    <row r="151" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F151">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="F151" s="1">
+      <c r="G151" s="1">
         <v>1753500000</v>
       </c>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E152">
+    <row r="152" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F152">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="F152" s="1">
+      <c r="G152" s="1">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E153">
+    <row r="153" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F153">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="F153" s="1">
+      <c r="G153" s="1">
         <v>2078770919</v>
       </c>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E154">
+    <row r="154" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F154">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="F154" s="1">
+      <c r="G154" s="1">
         <v>650040608</v>
       </c>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E155">
+    <row r="155" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F155">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="F155" s="1">
+      <c r="G155" s="1">
         <v>400459362</v>
       </c>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E156">
+    <row r="156" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F156">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="F156" s="1">
+      <c r="G156" s="1">
         <v>229345494</v>
       </c>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E157">
+    <row r="157" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F157">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="F157" s="1">
+      <c r="G157" s="1">
         <v>256450000</v>
       </c>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E158">
+    <row r="158" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F158">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="F158" s="1">
+      <c r="G158" s="1">
         <v>367437145</v>
       </c>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E159">
+    <row r="159" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F159">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="F159" s="1">
+      <c r="G159" s="1">
         <v>237663500</v>
       </c>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E160">
+    <row r="160" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F160">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="F160" s="1">
+      <c r="G160" s="1">
         <v>293463000</v>
       </c>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E161">
+    <row r="161" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F161">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="F161" s="1">
+      <c r="G161" s="1">
         <v>678654771</v>
       </c>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E162">
+    <row r="162" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F162">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="F162" s="1">
+      <c r="G162" s="1">
         <v>2367044000</v>
       </c>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E163">
+    <row r="163" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F163">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="F163" s="1">
+      <c r="G163" s="1">
         <v>7365878500</v>
       </c>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E164">
+    <row r="164" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F164">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="F164" s="1">
+      <c r="G164" s="1">
         <v>198935000</v>
       </c>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E165">
+    <row r="165" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F165">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="F165" s="1">
+      <c r="G165" s="1">
         <v>5051700800</v>
       </c>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E166">
+    <row r="166" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F166">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="F166" s="1">
+      <c r="G166" s="1">
         <v>1724890550</v>
       </c>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E167">
+    <row r="167" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F167">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="F167" s="1">
+      <c r="G167" s="1">
         <v>1189232250</v>
       </c>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E168">
+    <row r="168" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F168">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="F168" s="1">
+      <c r="G168" s="1">
         <v>3118718000</v>
       </c>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E169">
+    <row r="169" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F169">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="F169" s="1">
+      <c r="G169" s="1">
         <v>2631472500</v>
       </c>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E170">
+    <row r="170" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F170">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="F170" s="1">
+      <c r="G170" s="1">
         <v>1236798000</v>
       </c>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E171">
+    <row r="171" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F171">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="F171" s="1">
+      <c r="G171" s="1">
         <v>2672289000</v>
       </c>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E172">
+    <row r="172" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F172">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="F172" s="1">
+      <c r="G172" s="1">
         <v>2846423000</v>
       </c>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E173">
+    <row r="173" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F173">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="F173" s="1">
+      <c r="G173" s="1">
         <v>3458717500</v>
       </c>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E174">
+    <row r="174" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F174">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="F174" s="1">
+      <c r="G174" s="1">
         <v>276905000</v>
       </c>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E175">
+    <row r="175" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F175">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="F175" s="1">
+      <c r="G175" s="1">
         <v>3677115100</v>
       </c>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E176">
+    <row r="176" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F176">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="F176" s="1">
+      <c r="G176" s="1">
         <v>3377235000</v>
       </c>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E177">
+    <row r="177" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F177">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="F177" s="1">
+      <c r="G177" s="1">
         <v>6900007000</v>
       </c>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E178">
+    <row r="178" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F178">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="F178" s="1">
+      <c r="G178" s="1">
         <v>2926338500</v>
       </c>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E179">
+    <row r="179" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F179">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="F179" s="1">
+      <c r="G179" s="1">
         <v>9083241500</v>
       </c>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E180">
+    <row r="180" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F180">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="F180" s="1">
+      <c r="G180" s="1">
         <v>3425412500</v>
       </c>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E181">
+    <row r="181" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F181">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="F181" s="1">
+      <c r="G181" s="1">
         <v>2691187500</v>
       </c>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E182">
+    <row r="182" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F182">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="F182" s="1">
+      <c r="G182" s="1">
         <v>8803675000</v>
       </c>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E183">
+    <row r="183" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F183">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="F183" s="1">
+      <c r="G183" s="1">
         <v>5914502700</v>
       </c>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E184">
+    <row r="184" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F184">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="F184" s="1">
+      <c r="G184" s="1">
         <v>215297500</v>
       </c>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E185">
+    <row r="185" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F185">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="F185" s="1">
+      <c r="G185" s="1">
         <v>8992697500</v>
       </c>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E186">
+    <row r="186" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F186">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="F186" s="1">
+      <c r="G186" s="1">
         <v>4729755500</v>
       </c>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E187">
+    <row r="187" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F187">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="F187" s="1">
+      <c r="G187" s="1">
         <v>8614569000</v>
       </c>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E188">
+    <row r="188" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F188">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="F188" s="1">
+      <c r="G188" s="1">
         <v>5103702000</v>
       </c>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E189">
+    <row r="189" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F189">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="F189" s="1">
+      <c r="G189" s="1">
         <v>4164586000</v>
       </c>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E190">
+    <row r="190" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F190">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="F190" s="1">
+      <c r="G190" s="1">
         <v>1338084000</v>
       </c>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E191">
+    <row r="191" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F191">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="F191" s="1">
+      <c r="G191" s="1">
         <v>3854250500</v>
       </c>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E192">
+    <row r="192" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F192">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="F192" s="1">
+      <c r="G192" s="1">
         <v>2954305000</v>
       </c>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E193">
+    <row r="193" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F193">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="F193" s="1">
+      <c r="G193" s="1">
         <v>3126801000</v>
       </c>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E194">
+    <row r="194" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F194">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="F194" s="1">
+      <c r="G194" s="1">
         <v>2804560950</v>
       </c>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E195">
+    <row r="195" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F195">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="F195" s="1">
+      <c r="G195" s="1">
         <v>1043103000</v>
       </c>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E196">
-        <f t="shared" ref="E196:E259" si="3">E195+1</f>
+    <row r="196" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <f t="shared" ref="F196:F259" si="3">F195+1</f>
         <v>195</v>
       </c>
-      <c r="F196" s="1">
+      <c r="G196" s="1">
         <v>2108750500</v>
       </c>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E197">
+    <row r="197" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F197">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="F197" s="1">
+      <c r="G197" s="1">
         <v>105165000</v>
       </c>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E198">
+    <row r="198" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F198">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="F198" s="1">
+      <c r="G198" s="1">
         <v>2042370750</v>
       </c>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E199">
+    <row r="199" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F199">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="F199" s="1">
+      <c r="G199" s="1">
         <v>3645992700</v>
       </c>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E200">
+    <row r="200" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F200">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="F200" s="1">
+      <c r="G200" s="1">
         <v>4312306750</v>
       </c>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E201">
+    <row r="201" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F201">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="F201" s="1">
+      <c r="G201" s="1">
         <v>2532007850</v>
       </c>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E202">
+    <row r="202" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F202">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="F202" s="1">
+      <c r="G202" s="1">
         <v>1627999625</v>
       </c>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E203">
+    <row r="203" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F203">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="F203" s="1">
+      <c r="G203" s="1">
         <v>1502344500</v>
       </c>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E204">
+    <row r="204" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F204">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="F204" s="1">
+      <c r="G204" s="1">
         <v>5473443800</v>
       </c>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E205">
+    <row r="205" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F205">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="F205" s="1">
+      <c r="G205" s="1">
         <v>1708466300</v>
       </c>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E206">
+    <row r="206" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F206">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="F206" s="1">
+      <c r="G206" s="1">
         <v>1842994000</v>
       </c>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E207">
+    <row r="207" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F207">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="F207" s="1">
+      <c r="G207" s="1">
         <v>1882606000</v>
       </c>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E208">
+    <row r="208" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F208">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="F208" s="1">
+      <c r="G208" s="1">
         <v>1806760000</v>
       </c>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E209">
+    <row r="209" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F209">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="F209" s="1">
+      <c r="G209" s="1">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E210">
+    <row r="210" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F210">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="F210" s="1">
+      <c r="G210" s="1">
         <v>2850000000</v>
       </c>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E211">
+    <row r="211" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F211">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="F211" s="1">
+      <c r="G211" s="1">
         <v>3260000000</v>
       </c>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E212">
+    <row r="212" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F212">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="F212" s="1">
+      <c r="G212" s="1">
         <v>1850000000</v>
       </c>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E213">
+    <row r="213" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F213">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="F213" s="1">
+      <c r="G213" s="1">
         <v>7067740000</v>
       </c>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E214">
+    <row r="214" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F214">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="F214" s="1">
+      <c r="G214" s="1">
         <v>2084019500</v>
       </c>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E215">
+    <row r="215" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F215">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="F215" s="1">
+      <c r="G215" s="1">
         <v>4201655000</v>
       </c>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E216">
+    <row r="216" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F216">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="F216" s="1">
+      <c r="G216" s="1">
         <v>1664234400</v>
       </c>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E217">
+    <row r="217" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F217">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="F217" s="1">
+      <c r="G217" s="1">
         <v>250644500</v>
       </c>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E218">
+    <row r="218" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F218">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="F218" s="1">
+      <c r="G218" s="1">
         <v>1432385750</v>
       </c>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E219">
+    <row r="219" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F219">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="F219" s="1">
+      <c r="G219" s="1">
         <v>180154000</v>
       </c>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E220">
+    <row r="220" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F220">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="F220" s="1">
+      <c r="G220" s="1">
         <v>81788500</v>
       </c>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E221">
+    <row r="221" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F221">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="F221" s="1">
+      <c r="G221" s="1">
         <v>858040750</v>
       </c>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E222">
+    <row r="222" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F222">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="F222" s="1">
+      <c r="G222" s="1">
         <v>2394654050</v>
       </c>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E223">
+    <row r="223" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F223">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="F223" s="1">
+      <c r="G223" s="1">
         <v>269479000</v>
       </c>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E224">
+    <row r="224" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F224">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="F224" s="1">
+      <c r="G224" s="1">
         <v>123376250</v>
       </c>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E225">
+    <row r="225" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F225">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="F225" s="1">
+      <c r="G225" s="1">
         <v>58597000</v>
       </c>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E226">
+    <row r="226" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F226">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="F226" s="1">
+      <c r="G226" s="1">
         <v>180052800</v>
       </c>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E227">
+    <row r="227" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F227">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="F227" s="1">
+      <c r="G227" s="1">
         <v>191560175</v>
       </c>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E228">
+    <row r="228" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F228">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="F228" s="1">
+      <c r="G228" s="1">
         <v>1420569334</v>
       </c>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E229">
+    <row r="229" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F229">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="F229" s="1">
+      <c r="G229" s="1">
         <v>1200000000</v>
       </c>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E230">
+    <row r="230" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F230">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="F230" s="1">
+      <c r="G230" s="1">
         <v>1619900000</v>
       </c>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E231">
+    <row r="231" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F231">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="F231" s="1">
+      <c r="G231" s="1">
         <v>1699900000</v>
       </c>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E232">
+    <row r="232" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F232">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="F232" s="1">
+      <c r="G232" s="1">
         <v>1301100000</v>
       </c>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E233">
+    <row r="233" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F233">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="F233" s="1">
+      <c r="G233" s="1">
         <v>21170000</v>
       </c>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E234">
+    <row r="234" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F234">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="F234" s="1">
+      <c r="G234" s="1">
         <v>20617500</v>
       </c>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E235">
+    <row r="235" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F235">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="F235" s="1">
+      <c r="G235" s="1">
         <v>41301500</v>
       </c>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E236">
+    <row r="236" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F236">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="F236" s="1">
+      <c r="G236" s="1">
         <v>11635000</v>
       </c>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E237">
+    <row r="237" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F237">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="F237" s="1">
+      <c r="G237" s="1">
         <v>307955800</v>
       </c>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E238">
+    <row r="238" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F238">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="F238" s="1">
+      <c r="G238" s="1">
         <v>20000000000</v>
       </c>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E239">
+    <row r="239" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F239">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="F239" s="1">
+      <c r="G239" s="1">
         <v>10000000000</v>
       </c>
     </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E240">
+    <row r="240" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F240">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="F240" s="1">
+      <c r="G240" s="1">
         <v>467955000</v>
       </c>
     </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E241">
+    <row r="241" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F241">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F241" s="1">
+      <c r="G241" s="1">
         <v>9270000</v>
       </c>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E242">
+    <row r="242" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F242">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="F242" s="1">
+      <c r="G242" s="1">
         <v>11408000</v>
       </c>
     </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E243">
+    <row r="243" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F243">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="F243" s="1">
+      <c r="G243" s="1">
         <v>3510000</v>
       </c>
     </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E244">
+    <row r="244" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F244">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
-      <c r="F244" s="1">
+      <c r="G244" s="1">
         <v>1140000</v>
       </c>
     </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E245">
+    <row r="245" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F245">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="F245" s="1">
+      <c r="G245" s="1">
         <v>17677500</v>
       </c>
     </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E246">
+    <row r="246" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F246">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="F246" s="1">
+      <c r="G246" s="1">
         <v>357000</v>
       </c>
     </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E247">
+    <row r="247" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F247">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="F247" s="1">
+      <c r="G247" s="1">
         <v>4495000</v>
       </c>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E248">
+    <row r="248" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F248">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="F248" s="1">
+      <c r="G248" s="1">
         <v>101696858</v>
       </c>
     </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E249">
+    <row r="249" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F249">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="F249" s="1">
+      <c r="G249" s="1">
         <v>4257191190</v>
       </c>
     </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E250">
+    <row r="250" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F250">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="F250" s="1">
+      <c r="G250" s="1">
         <v>185516430</v>
       </c>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E251">
+    <row r="251" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F251">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="F251" s="1">
+      <c r="G251" s="1">
         <v>1925602946</v>
       </c>
     </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E252">
+    <row r="252" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F252">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="F252" s="1">
+      <c r="G252" s="1">
         <v>1574310965</v>
       </c>
     </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E253">
+    <row r="253" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F253">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="F253" s="1">
+      <c r="G253" s="1">
         <v>7418127108</v>
       </c>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E254">
+    <row r="254" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F254">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="F254" s="1">
+      <c r="G254" s="1">
         <v>190406650</v>
       </c>
     </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E255">
+    <row r="255" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F255">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="F255" s="1">
+      <c r="G255" s="1">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E256">
+    <row r="256" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F256">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="F256" s="1">
+      <c r="G256" s="1">
         <v>2290551040</v>
       </c>
     </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E257">
+    <row r="257" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F257">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="F257" s="1">
+      <c r="G257" s="1">
         <v>13844000</v>
       </c>
     </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E258">
+    <row r="258" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F258">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="F258" s="1">
+      <c r="G258" s="1">
         <v>81516501</v>
       </c>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E259">
+    <row r="259" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F259">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="F259" s="1">
+      <c r="G259" s="1">
         <v>41480999</v>
       </c>
     </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E260">
-        <f t="shared" ref="E260:E261" si="4">E259+1</f>
+    <row r="260" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <f t="shared" ref="F260:F261" si="4">F259+1</f>
         <v>259</v>
       </c>
-      <c r="F260" s="1">
+      <c r="G260" s="1">
         <v>232000000</v>
       </c>
     </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E261">
+    <row r="261" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F261">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="F261" s="1">
+      <c r="G261" s="1">
         <v>70193000</v>
       </c>
     </row>

--- a/LPsolve1/Commons/Excel/newData.xlsx
+++ b/LPsolve1/Commons/Excel/newData.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
